--- a/Lab 6/Data/Run_10.xlsx
+++ b/Lab 6/Data/Run_10.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathryn\Dropbox\2015 Spring\LITEC\Labs\LITEC\Lab 6\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="3840" yWindow="4035" windowWidth="19635" windowHeight="6045"/>
   </bookViews>
@@ -513,8 +518,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -565,6 +571,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1329,17 +1338,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180038272"/>
-        <c:axId val="180040832"/>
+        <c:axId val="403419136"/>
+        <c:axId val="403419528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180038272"/>
+        <c:axId val="403419136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -1347,12 +1371,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180040832"/>
+        <c:crossAx val="403419528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180040832"/>
+        <c:axId val="403419528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,6 +1384,26 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Heading (degrees)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -1367,7 +1411,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180038272"/>
+        <c:crossAx val="403419136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1388,16 +1432,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1462,7 +1506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1497,7 +1541,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1706,36 +1750,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="B3:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="B3" sqref="B3:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>45</v>
       </c>
@@ -1746,7 +1786,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>45</v>
       </c>
@@ -1757,7 +1797,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>45</v>
       </c>
@@ -1768,7 +1808,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>45</v>
       </c>
@@ -1779,7 +1819,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>45</v>
       </c>
@@ -1790,7 +1830,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>45</v>
       </c>
@@ -1801,7 +1841,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>45</v>
       </c>
@@ -1812,7 +1852,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>45</v>
       </c>
@@ -1823,7 +1863,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>45</v>
       </c>
@@ -1834,7 +1874,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>45</v>
       </c>
@@ -1845,7 +1885,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>45</v>
       </c>
@@ -1856,7 +1896,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>45</v>
       </c>
@@ -1867,7 +1907,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>45</v>
       </c>
@@ -2342,6 +2382,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Lab 6/Data/Run_10.xlsx
+++ b/Lab 6/Data/Run_10.xlsx
@@ -1329,17 +1329,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180038272"/>
-        <c:axId val="180040832"/>
+        <c:axId val="139198848"/>
+        <c:axId val="139200768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180038272"/>
+        <c:axId val="139198848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -1347,12 +1362,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180040832"/>
+        <c:crossAx val="139200768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180040832"/>
+        <c:axId val="139200768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,6 +1375,21 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Heading (degrees)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -1367,7 +1397,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180038272"/>
+        <c:crossAx val="139198848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1708,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lab 6/Data/Run_10.xlsx
+++ b/Lab 6/Data/Run_10.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Run_10" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>hkp: 0.8</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Heading</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -791,174 +794,174 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Run_10!$D$4:$D$58</c:f>
+              <c:f>Run_10!$F$4:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>175</c:v>
+                  <c:v>-130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>172</c:v>
+                  <c:v>-127</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130</c:v>
+                  <c:v>-85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81</c:v>
+                  <c:v>-36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68</c:v>
+                  <c:v>-23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>66</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>52</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>53</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>52</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>54</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>55</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>75</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>68</c:v>
+                  <c:v>-23</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>52</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>54</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>62</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>48</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>56</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>58</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>49</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>44</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>51</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>47</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>46</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>47</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>46</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>46</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>47</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1147,174 +1150,174 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Run_10!$C$4:$C$58</c:f>
+              <c:f>Run_10!$B$4:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1329,11 +1332,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="139198848"/>
-        <c:axId val="139200768"/>
+        <c:axId val="93063040"/>
+        <c:axId val="93065216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="139198848"/>
+        <c:axId val="93063040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,12 +1365,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139200768"/>
+        <c:crossAx val="93065216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139200768"/>
+        <c:axId val="93065216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1388,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Heading (degrees)</a:t>
+                  <a:t>Heading Error (degrees)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1397,7 +1400,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139198848"/>
+        <c:crossAx val="93063040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1736,25 +1739,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -1764,8 +1767,14 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>45</v>
       </c>
@@ -1775,8 +1784,15 @@
       <c r="E4">
         <v>400</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>C4-D4</f>
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>45</v>
       </c>
@@ -1786,8 +1802,15 @@
       <c r="E5">
         <v>800</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" ref="F5:F58" si="0">C5-D5</f>
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
         <v>45</v>
       </c>
@@ -1797,8 +1820,15 @@
       <c r="E6">
         <v>1200</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
         <v>45</v>
       </c>
@@ -1808,8 +1838,15 @@
       <c r="E7">
         <v>1600</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
         <v>45</v>
       </c>
@@ -1819,8 +1856,15 @@
       <c r="E8">
         <v>2000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
         <v>45</v>
       </c>
@@ -1830,8 +1874,15 @@
       <c r="E9">
         <v>2400</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
         <v>45</v>
       </c>
@@ -1841,8 +1892,15 @@
       <c r="E10">
         <v>2800</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
         <v>45</v>
       </c>
@@ -1852,8 +1910,15 @@
       <c r="E11">
         <v>3200</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
         <v>45</v>
       </c>
@@ -1863,8 +1928,15 @@
       <c r="E12">
         <v>3600</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>45</v>
       </c>
@@ -1874,8 +1946,15 @@
       <c r="E13">
         <v>4000</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>45</v>
       </c>
@@ -1885,8 +1964,15 @@
       <c r="E14">
         <v>4400</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
         <v>45</v>
       </c>
@@ -1896,8 +1982,15 @@
       <c r="E15">
         <v>4800</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
         <v>45</v>
       </c>
@@ -1907,8 +2000,15 @@
       <c r="E16">
         <v>5200</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
         <v>45</v>
       </c>
@@ -1918,8 +2018,15 @@
       <c r="E17">
         <v>5600</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
         <v>45</v>
       </c>
@@ -1929,8 +2036,15 @@
       <c r="E18">
         <v>6000</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
         <v>45</v>
       </c>
@@ -1940,8 +2054,15 @@
       <c r="E19">
         <v>6400</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
         <v>45</v>
       </c>
@@ -1951,8 +2072,15 @@
       <c r="E20">
         <v>6800</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
         <v>45</v>
       </c>
@@ -1962,8 +2090,15 @@
       <c r="E21">
         <v>7200</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
         <v>45</v>
       </c>
@@ -1973,8 +2108,15 @@
       <c r="E22">
         <v>7600</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
         <v>45</v>
       </c>
@@ -1984,8 +2126,15 @@
       <c r="E23">
         <v>8000</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>45</v>
       </c>
@@ -1995,8 +2144,15 @@
       <c r="E24">
         <v>8400</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
         <v>45</v>
       </c>
@@ -2006,8 +2162,15 @@
       <c r="E25">
         <v>8800</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
       <c r="C26">
         <v>45</v>
       </c>
@@ -2017,8 +2180,15 @@
       <c r="E26">
         <v>9200</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
       <c r="C27">
         <v>45</v>
       </c>
@@ -2028,8 +2198,15 @@
       <c r="E27">
         <v>9600</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
       <c r="C28">
         <v>45</v>
       </c>
@@ -2039,8 +2216,15 @@
       <c r="E28">
         <v>10000</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>45</v>
       </c>
@@ -2050,8 +2234,15 @@
       <c r="E29">
         <v>10400</v>
       </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
       <c r="C30">
         <v>45</v>
       </c>
@@ -2061,8 +2252,15 @@
       <c r="E30">
         <v>10800</v>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
       <c r="C31">
         <v>45</v>
       </c>
@@ -2072,8 +2270,15 @@
       <c r="E31">
         <v>11200</v>
       </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
       <c r="C32">
         <v>45</v>
       </c>
@@ -2083,8 +2288,15 @@
       <c r="E32">
         <v>11600</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
       <c r="C33">
         <v>45</v>
       </c>
@@ -2094,8 +2306,15 @@
       <c r="E33">
         <v>12000</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
       <c r="C34">
         <v>45</v>
       </c>
@@ -2105,8 +2324,15 @@
       <c r="E34">
         <v>12400</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0</v>
+      </c>
       <c r="C35">
         <v>45</v>
       </c>
@@ -2116,8 +2342,15 @@
       <c r="E35">
         <v>12800</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
       <c r="C36">
         <v>45</v>
       </c>
@@ -2127,8 +2360,15 @@
       <c r="E36">
         <v>13200</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
       <c r="C37">
         <v>45</v>
       </c>
@@ -2138,8 +2378,15 @@
       <c r="E37">
         <v>13600</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
       <c r="C38">
         <v>45</v>
       </c>
@@ -2149,8 +2396,15 @@
       <c r="E38">
         <v>14000</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0</v>
+      </c>
       <c r="C39">
         <v>45</v>
       </c>
@@ -2160,8 +2414,15 @@
       <c r="E39">
         <v>14400</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0</v>
+      </c>
       <c r="C40">
         <v>45</v>
       </c>
@@ -2171,8 +2432,15 @@
       <c r="E40">
         <v>14800</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>45</v>
       </c>
@@ -2182,8 +2450,15 @@
       <c r="E41">
         <v>15200</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>45</v>
       </c>
@@ -2193,8 +2468,15 @@
       <c r="E42">
         <v>15600</v>
       </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0</v>
+      </c>
       <c r="C43">
         <v>45</v>
       </c>
@@ -2204,8 +2486,15 @@
       <c r="E43">
         <v>16000</v>
       </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0</v>
+      </c>
       <c r="C44">
         <v>45</v>
       </c>
@@ -2215,8 +2504,15 @@
       <c r="E44">
         <v>16400</v>
       </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0</v>
+      </c>
       <c r="C45">
         <v>45</v>
       </c>
@@ -2226,8 +2522,15 @@
       <c r="E45">
         <v>16800</v>
       </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0</v>
+      </c>
       <c r="C46">
         <v>45</v>
       </c>
@@ -2237,8 +2540,15 @@
       <c r="E46">
         <v>17200</v>
       </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0</v>
+      </c>
       <c r="C47">
         <v>45</v>
       </c>
@@ -2248,8 +2558,15 @@
       <c r="E47">
         <v>17600</v>
       </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0</v>
+      </c>
       <c r="C48">
         <v>45</v>
       </c>
@@ -2259,8 +2576,15 @@
       <c r="E48">
         <v>18000</v>
       </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0</v>
+      </c>
       <c r="C49">
         <v>45</v>
       </c>
@@ -2270,8 +2594,15 @@
       <c r="E49">
         <v>18400</v>
       </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0</v>
+      </c>
       <c r="C50">
         <v>45</v>
       </c>
@@ -2281,8 +2612,15 @@
       <c r="E50">
         <v>18800</v>
       </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0</v>
+      </c>
       <c r="C51">
         <v>45</v>
       </c>
@@ -2292,8 +2630,15 @@
       <c r="E51">
         <v>19200</v>
       </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0</v>
+      </c>
       <c r="C52">
         <v>45</v>
       </c>
@@ -2303,8 +2648,15 @@
       <c r="E52">
         <v>20000</v>
       </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0</v>
+      </c>
       <c r="C53">
         <v>45</v>
       </c>
@@ -2314,8 +2666,15 @@
       <c r="E53">
         <v>20400</v>
       </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0</v>
+      </c>
       <c r="C54">
         <v>45</v>
       </c>
@@ -2325,8 +2684,15 @@
       <c r="E54">
         <v>20800</v>
       </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0</v>
+      </c>
       <c r="C55">
         <v>45</v>
       </c>
@@ -2336,8 +2702,15 @@
       <c r="E55">
         <v>21200</v>
       </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0</v>
+      </c>
       <c r="C56">
         <v>45</v>
       </c>
@@ -2347,8 +2720,15 @@
       <c r="E56">
         <v>21600</v>
       </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0</v>
+      </c>
       <c r="C57">
         <v>45</v>
       </c>
@@ -2358,8 +2738,15 @@
       <c r="E57">
         <v>22000</v>
       </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0</v>
+      </c>
       <c r="C58">
         <v>45</v>
       </c>
@@ -2368,6 +2755,10 @@
       </c>
       <c r="E58">
         <v>22800</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
